--- a/for_demo.xlsx
+++ b/for_demo.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denis/Desktop/2Pik/DigitalLeaders_budget_10_HACK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\task\practice\streamlit\DigitalLeaders_budget_10_HACK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A8DC7B7-50CF-FF49-A485-5629ABC62EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{4B3C487B-82EF-F948-A61C-CEB92430E7B5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -789,26 +788,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EED5D0-38A3-DF4E-BFA2-FC7889D5FF50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.1640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="44.125" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
     <col min="27" max="27" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35"/>
       <c r="B1" s="33" t="s">
         <v>2</v>
@@ -816,7 +815,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>37</v>
       </c>
@@ -850,7 +849,7 @@
       <c r="Z2" s="10"/>
       <c r="AA2" s="10"/>
     </row>
-    <row r="3" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
@@ -887,7 +886,7 @@
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="1:27" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
@@ -924,7 +923,7 @@
       <c r="Z4" s="11"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
@@ -932,10 +931,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="44">
-        <v>315000</v>
+        <v>315</v>
       </c>
       <c r="D5" s="44">
-        <v>332500</v>
+        <v>332.5</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
@@ -961,7 +960,7 @@
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
     </row>
-    <row r="6" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
@@ -998,7 +997,7 @@
       <c r="Z6" s="14"/>
       <c r="AA6" s="14"/>
     </row>
-    <row r="7" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>9</v>
       </c>
@@ -1035,7 +1034,7 @@
       <c r="Z7" s="14"/>
       <c r="AA7" s="16"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>34</v>
       </c>
@@ -1072,7 +1071,7 @@
       <c r="Z8" s="14"/>
       <c r="AA8" s="19"/>
     </row>
-    <row r="9" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>35</v>
       </c>
@@ -1109,7 +1108,7 @@
       <c r="Z9" s="14"/>
       <c r="AA9" s="17"/>
     </row>
-    <row r="10" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>36</v>
       </c>
@@ -1146,7 +1145,7 @@
       <c r="Z10" s="14"/>
       <c r="AA10" s="17"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>13</v>
       </c>
@@ -1183,7 +1182,7 @@
       <c r="Z11" s="23"/>
       <c r="AA11" s="25"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>14</v>
       </c>
@@ -1220,7 +1219,7 @@
       <c r="Z12" s="23"/>
       <c r="AA12" s="25"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>15</v>
       </c>
@@ -1257,7 +1256,7 @@
       <c r="Z13" s="11"/>
       <c r="AA13" s="11"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>16</v>
       </c>
@@ -1294,7 +1293,7 @@
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>17</v>
       </c>
@@ -1331,7 +1330,7 @@
       <c r="Z15" s="11"/>
       <c r="AA15" s="11"/>
     </row>
-    <row r="16" spans="1:27" ht="31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>19</v>
       </c>
@@ -1368,7 +1367,7 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
     </row>
-    <row r="17" spans="1:4" ht="31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>21</v>
       </c>
@@ -1382,7 +1381,7 @@
         <v>51100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>23</v>
       </c>
@@ -1396,7 +1395,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>25</v>
       </c>
@@ -1410,7 +1409,7 @@
         <v>151000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>27</v>
       </c>
@@ -1424,7 +1423,7 @@
         <v>44600</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>29</v>
       </c>
@@ -1438,7 +1437,7 @@
         <v>112400</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>31</v>
       </c>
@@ -1452,7 +1451,7 @@
         <v>144800</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>32</v>
       </c>
@@ -1466,7 +1465,7 @@
         <v>66600</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>33</v>
       </c>
